--- a/biology/Zoologie/Cryptoblepharus_gloriosus/Cryptoblepharus_gloriosus.xlsx
+++ b/biology/Zoologie/Cryptoblepharus_gloriosus/Cryptoblepharus_gloriosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoblepharus gloriosus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoblepharus gloriosus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans les îles Glorieuses ;
 dans l'archipel des Comores sur les îles de Mayotte et de Mohéli.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 août 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 août 2012) :
 Cryptoblepharus gloriosus gloriosus (Stejneger, 1893) - îles Glorieuses
 Cryptoblepharus gloriosus mayottensis Mertens, 1928 - Mayotte
 Cryptoblepharus gloriosus mohelicus Mertens, 1928 - Mohéli</t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mertens, 1928 : Neue Inselrassen von Cryptoblepharus boutonii (Desjardin). Zoologischer Anzeiger, vol. 78, p. 82-89.
 Stejneger, 1893 : On some collections of reptiles and batrachians from East Africa and the adjacent islands, recently received from Dr. W. L. Abbott and Mr. William Astor Chanler, with descriptions of new species. Proceedings of the United States National Museum, vol. 16, p. 711-741 (texte intégral).</t>
